--- a/data/georgia_census/kakheti/signagi/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/signagi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4466C67B-2C7B-48D6-AF62-2B92442919BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CD4981F-BECB-4DDB-B8EB-6A47883A5338}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3C6D7C-50CD-4C02-BF0B-996BE37A8EF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C968A7-0AC5-431C-B6D0-FE0F99A85F13}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61108245-6E54-461D-92CD-6895C3C09DED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D2D338C-226B-45E7-84A1-F0561C66D832}"/>
 </file>